--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1_捷豹组.xlsx
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1825,7 +1825,9 @@
       <c r="Q4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="44"/>
+      <c r="R4" s="44">
+        <v>6954</v>
+      </c>
       <c r="S4" s="44"/>
       <c r="T4" s="44"/>
       <c r="U4" s="45"/>

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1_捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -267,10 +267,6 @@
   </si>
   <si>
     <t>通过</t>
-  </si>
-  <si>
-    <t>12/230</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
@@ -780,7 +776,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,6 +826,18 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1181,7 +1189,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1196,11 +1204,15 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1572,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="B2:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1678,13 +1690,13 @@
         <v>68</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>69</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>70</v>
@@ -1700,20 +1712,20 @@
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="38" t="s">
         <v>76</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>77</v>
       </c>
       <c r="N2" s="38"/>
       <c r="O2" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="106" t="s">
+      <c r="P2" s="106">
+        <v>42734</v>
+      </c>
+      <c r="Q2" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>73</v>
       </c>
       <c r="R2" s="47">
         <v>6934</v>
@@ -1734,13 +1746,13 @@
         <v>68</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>70</v>
@@ -1756,22 +1768,24 @@
       </c>
       <c r="K3" s="38"/>
       <c r="L3" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="106">
+        <v>42734</v>
+      </c>
+      <c r="Q3" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="93"/>
+      <c r="R3" s="93">
+        <v>6956</v>
+      </c>
       <c r="S3" s="93"/>
       <c r="T3" s="93"/>
       <c r="U3" s="52"/>
@@ -1788,13 +1802,13 @@
         <v>68</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>70</v>
@@ -1810,20 +1824,20 @@
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="38" t="s">
         <v>76</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>77</v>
       </c>
       <c r="N4" s="38"/>
       <c r="O4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="106">
+        <v>42734</v>
+      </c>
+      <c r="Q4" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>73</v>
       </c>
       <c r="R4" s="44">
         <v>6954</v>
